--- a/data/trans_camb/IP42B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP42B-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11,29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>12,5</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>8,94</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,29</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 22,9</t>
+          <t>-0,68; 22,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 20,62</t>
+          <t>-11,54; 6,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 21,72</t>
+          <t>0,58; 23,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 6,35</t>
+          <t>-3,2; 19,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 19,9</t>
+          <t>3,98; 20,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 11,36</t>
+          <t>-3,08; 11,16</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>291,14%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>345,14%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>246,72%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>291,14%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; —</t>
+          <t>3,98; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,47; —</t>
+          <t>-62,77; —</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>13,64</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>10,6</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 20,22</t>
+          <t>4,06; 22,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 4,91</t>
+          <t>-3,41; 10,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 24,15</t>
+          <t>3,08; 19,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 10,47</t>
+          <t>-6,89; 4,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 18,7</t>
+          <t>5,73; 18,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,51</t>
+          <t>-3,16; 5,32</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>319,29%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72,89%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>228,72%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-9,7%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>319,29%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>72,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 1447,99</t>
+          <t>14,71; 1596,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,54; 339,56</t>
+          <t>-68,66; 750,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 1477,08</t>
+          <t>20,41; 1321,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,29; —</t>
+          <t>-85,23; 354,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>68,4; 808,28</t>
+          <t>67,18; 786,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,72; 245,46</t>
+          <t>-52,41; 232,75</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-5,3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-8,5</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-4,27</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-12,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,3</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-8,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 9,54</t>
+          <t>-27,48; 8,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,41; -1,35</t>
+          <t>-26,43; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 9,92</t>
+          <t>-19,15; 9,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 5,1</t>
+          <t>-26,38; -1,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 4,77</t>
+          <t>-16,65; 5,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,08; -1,49</t>
+          <t>-21,5; -1,88</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-32,46%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-52,08%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-22,74%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-67,15%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-32,46%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-52,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,3; 113,67</t>
+          <t>-86,64; 194,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,29; 1,51</t>
+          <t>-87,58; 174,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 252,74</t>
+          <t>-69,22; 96,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,05; 144,83</t>
+          <t>-92,29; 4,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,46; 41,01</t>
+          <t>-65,23; 56,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,84; -9,14</t>
+          <t>-84,06; -9,47</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>4,52</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>4,7</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 15,85</t>
+          <t>-6,39; 17,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 12,96</t>
+          <t>-9,83; 12,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 17,9</t>
+          <t>-3,03; 14,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 12,55</t>
+          <t>-2,58; 13,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,41</t>
+          <t>-2,78; 13,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 9,13</t>
+          <t>-4,47; 9,65</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>41,56%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>88,86%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>92,38%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>41,56%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 900,23</t>
+          <t>-40,13; 247,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 772,17</t>
+          <t>-57,7; 156,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 256,63</t>
+          <t>-60,7; 724,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 160,69</t>
+          <t>-51,56; 720,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 204,81</t>
+          <t>-26,7; 213,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 156,78</t>
+          <t>-40,86; 165,93</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,17</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,66</t>
+          <t>0,68; 12,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 3,79</t>
+          <t>-5,97; 3,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 12,39</t>
+          <t>1,05; 12,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,68</t>
+          <t>-4,21; 4,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,55</t>
+          <t>2,55; 10,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,04</t>
+          <t>-3,99; 3,09</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>71,93%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-8,26%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>91,85%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>2,37%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>71,93%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-8,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9,76; 226,92</t>
+          <t>3,9; 202,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 75,52</t>
+          <t>-50,08; 61,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,2; 202,1</t>
+          <t>5,6; 221,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 76,58</t>
+          <t>-43,68; 85,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>23,26; 167,61</t>
+          <t>20,3; 168,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 51,88</t>
+          <t>-38,31; 49,73</t>
         </is>
       </c>
     </row>
